--- a/biology/Botanique/Pelazoneuron/Pelazoneuron.xlsx
+++ b/biology/Botanique/Pelazoneuron/Pelazoneuron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelazoneuron est un genre de fougères de la famille des Thelypteridaceae (ordre des Polypodiales)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelazoneuron est un genre de fougères de la famille des Thelypteridaceae (ordre des Polypodiales).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Pelazoneuron se rencontrent dans le Sud-Est des États-Unis, ainsi que de certaines parties de l'Amérique centrale et du Nord-Est de l'Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Pelazoneuron se rencontrent dans le Sud-Est des États-Unis, ainsi que de certaines parties de l'Amérique centrale et du Nord-Est de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (19 janvier 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (19 janvier 2024) :
 Pelazoneuron abruptum (C.Presl) A.R.Sm. &amp; S.E.Fawc.
 Pelazoneuron acunae (C.Sánchez &amp; Zavaro)
 Pelazoneuron albicaule (Fee) A.R.Sm. &amp; S.E.Fawc.
@@ -593,9 +609,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pelazoneuron (Holttum) A.R.Sm. &amp; S.E.Fawc.[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pelazoneuron (Holttum) A.R.Sm. &amp; S.E.Fawc..
 </t>
         </is>
       </c>
